--- a/excels/Expression etc.xlsx
+++ b/excels/Expression etc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dokumente\VisualStudio\BA\bachelor-thesis\zz_excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dokumente\VisualStudio\BA\bachelor-thesis\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="82">
   <si>
     <t>BlockStmt</t>
   </si>
@@ -216,6 +216,177 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Mod</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = M;</t>
+    </r>
+  </si>
+  <si>
+    <t>ApplySuffix</t>
+  </si>
+  <si>
+    <t>LocalVariable</t>
+  </si>
+  <si>
+    <t>ExprRhs</t>
+  </si>
+  <si>
+    <t>TypeRhs</t>
+  </si>
+  <si>
+    <t>NameSegment</t>
+  </si>
+  <si>
+    <t>IdentifierExpression</t>
+  </si>
+  <si>
+    <t>ExprDotName</t>
+  </si>
+  <si>
+    <t>BinaryExpression</t>
+  </si>
+  <si>
+    <t>NegationExpression</t>
+  </si>
+  <si>
+    <t>UnaryOpExpression</t>
+  </si>
+  <si>
+    <t>ITEExpr</t>
+  </si>
+  <si>
+    <t>ThisExpr</t>
+  </si>
+  <si>
+    <t>ParensExpression</t>
+  </si>
+  <si>
+    <t>ChainingExpression</t>
+  </si>
+  <si>
+    <t>AutoGhostIdentifierExpr</t>
+  </si>
+  <si>
+    <t>LiteralExpression</t>
+  </si>
+  <si>
+    <t>ComprehensionExpression</t>
+  </si>
+  <si>
+    <t>SeqSelectExpr</t>
+  </si>
+  <si>
+    <t>SeqDisplayExpr</t>
+  </si>
+  <si>
+    <t>[1, 2, 3]</t>
+  </si>
+  <si>
+    <t>a[0..|a|]</t>
+  </si>
+  <si>
+    <t>forall k: int :: 0 &lt;= k &lt; |a| ==&gt; 0 &lt; a[k]</t>
+  </si>
+  <si>
+    <t>1 &lt; 2 &lt; 3 &lt; 4 &gt; 3 == 3 &gt; 2;</t>
+  </si>
+  <si>
+    <t>(((a)))</t>
+  </si>
+  <si>
+    <t>if a &gt; 0 then a else 0;</t>
+  </si>
+  <si>
+    <t>!a</t>
+  </si>
+  <si>
+    <t>-a</t>
+  </si>
+  <si>
+    <t>a &gt; 0</t>
+  </si>
+  <si>
+    <t>myClass.myMember;</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">var </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:= 2;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.myMember;</t>
+    </r>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Statement</t>
+  </si>
+  <si>
+    <t>Declaration</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <r>
       <t>method foo(</t>
     </r>
     <r>
@@ -243,7 +414,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>o:out</t>
+      <t>o:int</t>
     </r>
     <r>
       <rPr>
@@ -254,168 +425,6 @@
       </rPr>
       <t>) { … }</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">import </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Mod</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> = M;</t>
-    </r>
-  </si>
-  <si>
-    <t>ApplySuffix</t>
-  </si>
-  <si>
-    <t>LocalVariable</t>
-  </si>
-  <si>
-    <t>ExprRhs</t>
-  </si>
-  <si>
-    <t>TypeRhs</t>
-  </si>
-  <si>
-    <t>NameSegment</t>
-  </si>
-  <si>
-    <t>IdentifierExpression</t>
-  </si>
-  <si>
-    <t>ExprDotName</t>
-  </si>
-  <si>
-    <t>BinaryExpression</t>
-  </si>
-  <si>
-    <t>NegationExpression</t>
-  </si>
-  <si>
-    <t>UnaryOpExpression</t>
-  </si>
-  <si>
-    <t>ITEExpr</t>
-  </si>
-  <si>
-    <t>ThisExpr</t>
-  </si>
-  <si>
-    <t>ParensExpression</t>
-  </si>
-  <si>
-    <t>ChainingExpression</t>
-  </si>
-  <si>
-    <t>AutoGhostIdentifierExpr</t>
-  </si>
-  <si>
-    <t>LiteralExpression</t>
-  </si>
-  <si>
-    <t>ComprehensionExpression</t>
-  </si>
-  <si>
-    <t>SeqSelectExpr</t>
-  </si>
-  <si>
-    <t>SeqDisplayExpr</t>
-  </si>
-  <si>
-    <t>[1, 2, 3]</t>
-  </si>
-  <si>
-    <t>a[0..|a|]</t>
-  </si>
-  <si>
-    <t>forall k: int :: 0 &lt;= k &lt; |a| ==&gt; 0 &lt; a[k]</t>
-  </si>
-  <si>
-    <t>1 &lt; 2 &lt; 3 &lt; 4 &gt; 3 == 3 &gt; 2;</t>
-  </si>
-  <si>
-    <t>(((a)))</t>
-  </si>
-  <si>
-    <t>if a &gt; 0 then a else 0;</t>
-  </si>
-  <si>
-    <t>!a</t>
-  </si>
-  <si>
-    <t>-a</t>
-  </si>
-  <si>
-    <t>a &gt; 0</t>
-  </si>
-  <si>
-    <t>myClass.myMember;</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">var </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:= 2;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>this</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.myMember;</t>
-    </r>
-  </si>
-  <si>
-    <t>Expression</t>
-  </si>
-  <si>
-    <t>Example</t>
   </si>
 </sst>
 </file>
@@ -951,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:C53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -964,10 +973,10 @@
     <row r="4" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15" x14ac:dyDescent="0.25">
@@ -1052,10 +1061,10 @@
     </row>
     <row r="17" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="15" x14ac:dyDescent="0.25">
@@ -1071,7 +1080,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="15" x14ac:dyDescent="0.25">
@@ -1144,10 +1153,10 @@
     </row>
     <row r="29" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="15" x14ac:dyDescent="0.25">
@@ -1155,7 +1164,7 @@
         <v>37</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="15" x14ac:dyDescent="0.25">
@@ -1168,7 +1177,7 @@
     </row>
     <row r="32" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>41</v>
@@ -1176,7 +1185,7 @@
     </row>
     <row r="33" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>42</v>
@@ -1184,7 +1193,7 @@
     </row>
     <row r="34" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>15</v>
@@ -1195,103 +1204,103 @@
     </row>
     <row r="37" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C49" s="7">
         <v>2</v>
@@ -1299,31 +1308,31 @@
     </row>
     <row r="50" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="53" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C53" s="18" t="s">
         <v>39</v>
